--- a/BME_OOP_Second_Semester_2023-overall.xlsx
+++ b/BME_OOP_Second_Semester_2023-overall.xlsx
@@ -2275,6 +2275,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2311,9 +2321,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2325,28 +2332,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2399,11 +2384,35 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2428,15 +2437,6 @@
     </xf>
     <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2697,7 +2697,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2755,7 +2755,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729AF3B9-A979-42F2-B73B-32BD11EBA159}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{729AF3B9-A979-42F2-B73B-32BD11EBA159}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2813,7 +2813,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D7EC8D-0704-4F42-935E-57EFB076D5C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86D7EC8D-0704-4F42-935E-57EFB076D5C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2871,7 +2871,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6CBCD2-51A0-4801-B304-440794D29BDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F6CBCD2-51A0-4801-B304-440794D29BDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2929,7 +2929,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{338DD727-CF14-41C0-9636-1FDE8148878E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{338DD727-CF14-41C0-9636-1FDE8148878E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4256,246 +4256,246 @@
     <row r="1" spans="2:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="146" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="146"/>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="146"/>
-      <c r="S1" s="146"/>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="146"/>
+      <c r="D1" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
     </row>
     <row r="2" spans="2:28" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="138" t="s">
+      <c r="D2" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138"/>
-      <c r="Z2" s="138"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="142"/>
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="142"/>
     </row>
     <row r="3" spans="2:28" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="145" t="s">
+      <c r="D3" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="145"/>
-      <c r="F3" s="139" t="s">
+      <c r="E3" s="128"/>
+      <c r="F3" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="139"/>
-      <c r="S3" s="139"/>
-      <c r="T3" s="139"/>
-      <c r="U3" s="139"/>
-      <c r="V3" s="139"/>
-      <c r="W3" s="139"/>
-      <c r="X3" s="139"/>
-      <c r="Y3" s="139"/>
-      <c r="Z3" s="139"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="129"/>
+      <c r="U3" s="129"/>
+      <c r="V3" s="129"/>
+      <c r="W3" s="129"/>
+      <c r="X3" s="129"/>
+      <c r="Y3" s="129"/>
+      <c r="Z3" s="129"/>
     </row>
     <row r="4" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="145" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="145"/>
-      <c r="F4" s="139" t="s">
+      <c r="D4" s="128" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="128"/>
+      <c r="F4" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="139"/>
-      <c r="Y4" s="139"/>
-      <c r="Z4" s="139"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="129"/>
+      <c r="U4" s="129"/>
+      <c r="V4" s="129"/>
+      <c r="W4" s="129"/>
+      <c r="X4" s="129"/>
+      <c r="Y4" s="129"/>
+      <c r="Z4" s="129"/>
     </row>
     <row r="5" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="145" t="s">
+      <c r="D5" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="145"/>
-      <c r="F5" s="140" t="s">
+      <c r="E5" s="128"/>
+      <c r="F5" s="143" t="s">
         <v>179</v>
       </c>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="140"/>
-      <c r="R5" s="140"/>
-      <c r="S5" s="140"/>
-      <c r="T5" s="140"/>
-      <c r="U5" s="140"/>
-      <c r="V5" s="140"/>
-      <c r="W5" s="140"/>
-      <c r="X5" s="140"/>
-      <c r="Y5" s="140"/>
-      <c r="Z5" s="140"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="143"/>
+      <c r="P5" s="143"/>
+      <c r="Q5" s="143"/>
+      <c r="R5" s="143"/>
+      <c r="S5" s="143"/>
+      <c r="T5" s="143"/>
+      <c r="U5" s="143"/>
+      <c r="V5" s="143"/>
+      <c r="W5" s="143"/>
+      <c r="X5" s="143"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="143"/>
     </row>
     <row r="6" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="145" t="s">
+      <c r="D6" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="145"/>
-      <c r="F6" s="139" t="s">
+      <c r="E6" s="128"/>
+      <c r="F6" s="129" t="s">
         <v>175</v>
       </c>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="139"/>
-      <c r="Q6" s="139"/>
-      <c r="R6" s="139"/>
-      <c r="S6" s="139"/>
-      <c r="T6" s="139"/>
-      <c r="U6" s="139"/>
-      <c r="V6" s="139"/>
-      <c r="W6" s="139"/>
-      <c r="X6" s="139"/>
-      <c r="Y6" s="139"/>
-      <c r="Z6" s="139"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129"/>
+      <c r="V6" s="129"/>
+      <c r="W6" s="129"/>
+      <c r="X6" s="129"/>
+      <c r="Y6" s="129"/>
+      <c r="Z6" s="129"/>
     </row>
     <row r="7" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="145" t="s">
+      <c r="D7" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="145"/>
-      <c r="F7" s="139" t="s">
+      <c r="E7" s="128"/>
+      <c r="F7" s="129" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="139"/>
-      <c r="N7" s="139"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="139"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="139"/>
-      <c r="U7" s="139"/>
-      <c r="V7" s="139"/>
-      <c r="W7" s="139"/>
-      <c r="X7" s="139"/>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="129"/>
+      <c r="U7" s="129"/>
+      <c r="V7" s="129"/>
+      <c r="W7" s="129"/>
+      <c r="X7" s="129"/>
+      <c r="Y7" s="129"/>
+      <c r="Z7" s="129"/>
     </row>
     <row r="8" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="145" t="s">
+      <c r="D8" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="145"/>
-      <c r="F8" s="141" t="s">
+      <c r="E8" s="128"/>
+      <c r="F8" s="144" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="141"/>
-      <c r="N8" s="141"/>
-      <c r="O8" s="141"/>
-      <c r="P8" s="141"/>
-      <c r="Q8" s="141"/>
-      <c r="R8" s="141"/>
-      <c r="S8" s="141"/>
-      <c r="T8" s="141"/>
-      <c r="U8" s="141"/>
-      <c r="V8" s="141"/>
-      <c r="W8" s="141"/>
-      <c r="X8" s="141"/>
-      <c r="Y8" s="141"/>
-      <c r="Z8" s="141"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="144"/>
+      <c r="K8" s="144"/>
+      <c r="L8" s="144"/>
+      <c r="M8" s="144"/>
+      <c r="N8" s="144"/>
+      <c r="O8" s="144"/>
+      <c r="P8" s="144"/>
+      <c r="Q8" s="144"/>
+      <c r="R8" s="144"/>
+      <c r="S8" s="144"/>
+      <c r="T8" s="144"/>
+      <c r="U8" s="144"/>
+      <c r="V8" s="144"/>
+      <c r="W8" s="144"/>
+      <c r="X8" s="144"/>
+      <c r="Y8" s="144"/>
+      <c r="Z8" s="144"/>
     </row>
     <row r="9" spans="2:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
@@ -4525,10 +4525,10 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="2:28" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="127" t="s">
+      <c r="B10" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="134" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -4570,16 +4570,16 @@
       <c r="X10" s="23"/>
       <c r="Y10" s="23"/>
       <c r="Z10" s="23"/>
-      <c r="AA10" s="142" t="s">
+      <c r="AA10" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="AB10" s="136" t="s">
+      <c r="AB10" s="140" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:28" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="128"/>
-      <c r="C11" s="131"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="135"/>
       <c r="D11" s="23" t="s">
         <v>14</v>
       </c>
@@ -4605,12 +4605,12 @@
       <c r="X11" s="26"/>
       <c r="Y11" s="26"/>
       <c r="Z11" s="26"/>
-      <c r="AA11" s="143"/>
-      <c r="AB11" s="137"/>
+      <c r="AA11" s="146"/>
+      <c r="AB11" s="141"/>
     </row>
     <row r="12" spans="2:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="128"/>
-      <c r="C12" s="131"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="135"/>
       <c r="D12" s="25" t="s">
         <v>10</v>
       </c>
@@ -4657,35 +4657,35 @@
       </c>
     </row>
     <row r="13" spans="2:28" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="129"/>
-      <c r="C13" s="132"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="136"/>
       <c r="D13" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="133"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="134"/>
-      <c r="N13" s="134"/>
-      <c r="O13" s="134"/>
-      <c r="P13" s="134"/>
-      <c r="Q13" s="134"/>
-      <c r="R13" s="134"/>
-      <c r="S13" s="134"/>
-      <c r="T13" s="134"/>
-      <c r="U13" s="134"/>
-      <c r="V13" s="134"/>
-      <c r="W13" s="134"/>
-      <c r="X13" s="134"/>
-      <c r="Y13" s="134"/>
-      <c r="Z13" s="134"/>
-      <c r="AA13" s="134"/>
-      <c r="AB13" s="135"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="138"/>
+      <c r="Q13" s="138"/>
+      <c r="R13" s="138"/>
+      <c r="S13" s="138"/>
+      <c r="T13" s="138"/>
+      <c r="U13" s="138"/>
+      <c r="V13" s="138"/>
+      <c r="W13" s="138"/>
+      <c r="X13" s="138"/>
+      <c r="Y13" s="138"/>
+      <c r="Z13" s="138"/>
+      <c r="AA13" s="138"/>
+      <c r="AB13" s="139"/>
     </row>
     <row r="14" spans="2:28" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="74">
@@ -8037,26 +8037,26 @@
       <c r="E78" s="40"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="144" t="s">
+      <c r="I78" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="J78" s="144"/>
-      <c r="K78" s="144"/>
-      <c r="L78" s="144"/>
-      <c r="M78" s="144"/>
-      <c r="N78" s="144"/>
-      <c r="O78" s="144"/>
-      <c r="P78" s="144"/>
-      <c r="Q78" s="144"/>
-      <c r="R78" s="144"/>
-      <c r="S78" s="144"/>
-      <c r="T78" s="144"/>
-      <c r="U78" s="144"/>
-      <c r="V78" s="144"/>
-      <c r="W78" s="144"/>
-      <c r="X78" s="144"/>
-      <c r="Y78" s="144"/>
-      <c r="Z78" s="144"/>
+      <c r="J78" s="127"/>
+      <c r="K78" s="127"/>
+      <c r="L78" s="127"/>
+      <c r="M78" s="127"/>
+      <c r="N78" s="127"/>
+      <c r="O78" s="127"/>
+      <c r="P78" s="127"/>
+      <c r="Q78" s="127"/>
+      <c r="R78" s="127"/>
+      <c r="S78" s="127"/>
+      <c r="T78" s="127"/>
+      <c r="U78" s="127"/>
+      <c r="V78" s="127"/>
+      <c r="W78" s="127"/>
+      <c r="X78" s="127"/>
+      <c r="Y78" s="127"/>
+      <c r="Z78" s="127"/>
     </row>
     <row r="79" spans="2:28" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B79" s="38"/>
@@ -8146,15 +8146,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I78:Z78"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:Z3"/>
-    <mergeCell ref="D1:Z1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D7:E7"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="E13:AB13"/>
@@ -8166,6 +8157,15 @@
     <mergeCell ref="F6:Z6"/>
     <mergeCell ref="F8:Z8"/>
     <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="I78:Z78"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:Z3"/>
+    <mergeCell ref="D1:Z1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Linked Value" error="Entering data in this cell may cause error. " promptTitle="Linked Value" prompt="This cell is linked with Mid Term Award, kindly do changes in Mid Term award only, that will reflect here automatically" sqref="C77:E82">
@@ -8202,103 +8202,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
     </row>
     <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.3">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="150" t="e">
+      <c r="C3" s="167" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="42"/>
-      <c r="C4" s="147" t="str">
+      <c r="C4" s="164" t="str">
         <f>'[1]Mid Term Award'!$C$4</f>
         <v>6th</v>
       </c>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
       <c r="G4" s="41"/>
       <c r="H4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="151">
+      <c r="I4" s="168">
         <f>'[1]Mid Term Award'!$E$4</f>
         <v>2018</v>
       </c>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="151"/>
-      <c r="M4" s="151"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="168"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="44"/>
-      <c r="C5" s="147" t="str">
+      <c r="C5" s="164" t="str">
         <f>'[1]Mid Term Award'!$C$5</f>
         <v>Linear Control System</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="147"/>
-      <c r="K5" s="147"/>
-      <c r="L5" s="147"/>
-      <c r="M5" s="147"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="164"/>
+      <c r="M5" s="164"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="45" t="s">
@@ -8315,92 +8315,92 @@
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="152" t="str">
+      <c r="H6" s="147" t="str">
         <f>'[1]Mid Term Award'!$E$6</f>
         <v>EE-324</v>
       </c>
-      <c r="I6" s="152"/>
-      <c r="J6" s="152"/>
-      <c r="K6" s="152"/>
-      <c r="L6" s="152"/>
-      <c r="M6" s="152"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="147"/>
+      <c r="M6" s="147"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="153" t="str">
+      <c r="C7" s="148" t="str">
         <f>'[1]Mid Term Award'!$C$7</f>
         <v>Dr. Wzir Muhammad</v>
       </c>
-      <c r="D7" s="153"/>
+      <c r="D7" s="148"/>
       <c r="E7" s="41" t="s">
         <v>34</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="154">
+      <c r="G7" s="149">
         <f>'[1]Mid Term Award'!$G$7</f>
         <v>3332634843</v>
       </c>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="155"/>
-      <c r="M7" s="155"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
     </row>
     <row r="8" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="156" t="s">
+      <c r="A8" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="156"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="151"/>
+      <c r="L8" s="151"/>
+      <c r="M8" s="151"/>
     </row>
     <row r="9" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="157" t="s">
+      <c r="A9" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="159" t="s">
+      <c r="B9" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="161" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="163" t="s">
+      <c r="C9" s="156" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="165" t="s">
+      <c r="E9" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="165" t="s">
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="166"/>
-      <c r="K9" s="166"/>
-      <c r="L9" s="168"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="161"/>
+      <c r="L9" s="163"/>
       <c r="M9" s="48" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="158"/>
-      <c r="B10" s="160"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="164"/>
+      <c r="A10" s="153"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="159"/>
       <c r="E10" s="53">
         <v>1</v>
       </c>
@@ -12391,6 +12391,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="I4:M4"/>
     <mergeCell ref="H6:M6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="G7:M7"/>
@@ -12401,12 +12407,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="I4:M4"/>
   </mergeCells>
   <conditionalFormatting sqref="M14:M89 M91:M99">
     <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
@@ -12518,46 +12518,46 @@
     <row r="1" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="146" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
+      <c r="C1" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
     </row>
     <row r="2" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
     </row>
     <row r="3" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="145"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="88" t="s">
         <v>185</v>
       </c>
@@ -12590,22 +12590,22 @@
     <row r="4" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="139" t="s">
+      <c r="D4" s="128"/>
+      <c r="E4" s="129" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
-      <c r="N4" s="139"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
       <c r="O4" s="88"/>
       <c r="P4" s="88"/>
       <c r="Q4" s="88"/>
@@ -12626,22 +12626,22 @@
     <row r="5" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="128" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="145"/>
-      <c r="E5" s="140" t="s">
+      <c r="D5" s="128"/>
+      <c r="E5" s="143" t="s">
         <v>244</v>
       </c>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
       <c r="O5" s="89"/>
       <c r="P5" s="89"/>
       <c r="Q5" s="89"/>
@@ -12662,62 +12662,62 @@
     <row r="6" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="128" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="145"/>
-      <c r="E6" s="139" t="s">
+      <c r="D6" s="128"/>
+      <c r="E6" s="129" t="s">
         <v>251</v>
       </c>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
     </row>
     <row r="7" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="145" t="s">
+      <c r="C7" s="128" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="139" t="s">
+      <c r="D7" s="128"/>
+      <c r="E7" s="129" t="s">
         <v>248</v>
       </c>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="139"/>
-      <c r="N7" s="139"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="145" t="s">
+      <c r="C8" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="145"/>
-      <c r="E8" s="141" t="s">
+      <c r="D8" s="128"/>
+      <c r="E8" s="144" t="s">
         <v>252</v>
       </c>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="141"/>
-      <c r="N8" s="141"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="144"/>
+      <c r="K8" s="144"/>
+      <c r="L8" s="144"/>
+      <c r="M8" s="144"/>
+      <c r="N8" s="144"/>
     </row>
     <row r="9" spans="1:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
@@ -12736,10 +12736,10 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:30" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="134" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -12760,16 +12760,16 @@
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
-      <c r="O10" s="142" t="s">
+      <c r="O10" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="136" t="s">
+      <c r="P10" s="140" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="128"/>
-      <c r="B11" s="131"/>
+      <c r="A11" s="132"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="23" t="s">
         <v>14</v>
       </c>
@@ -12788,12 +12788,12 @@
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
       <c r="N11" s="26"/>
-      <c r="O11" s="143"/>
-      <c r="P11" s="137"/>
+      <c r="O11" s="146"/>
+      <c r="P11" s="141"/>
     </row>
     <row r="12" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="128"/>
-      <c r="B12" s="131"/>
+      <c r="A12" s="132"/>
+      <c r="B12" s="135"/>
       <c r="C12" s="25" t="s">
         <v>10</v>
       </c>
@@ -12821,24 +12821,24 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="129"/>
-      <c r="B13" s="132"/>
+      <c r="A13" s="133"/>
+      <c r="B13" s="136"/>
       <c r="C13" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="133"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="134"/>
-      <c r="N13" s="134"/>
-      <c r="O13" s="134"/>
-      <c r="P13" s="135"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="139"/>
     </row>
     <row r="14" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="31">
@@ -13806,21 +13806,21 @@
       <c r="N42" s="10"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C43" s="144" t="s">
+      <c r="C43" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="144"/>
+      <c r="D43" s="127"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="144" t="s">
+      <c r="H43" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="I43" s="144"/>
-      <c r="J43" s="144"/>
-      <c r="K43" s="144"/>
-      <c r="L43" s="144"/>
-      <c r="M43" s="144"/>
-      <c r="N43" s="144"/>
+      <c r="I43" s="127"/>
+      <c r="J43" s="127"/>
+      <c r="K43" s="127"/>
+      <c r="L43" s="127"/>
+      <c r="M43" s="127"/>
+      <c r="N43" s="127"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F44" s="3"/>
@@ -13840,12 +13840,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:N4"/>
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="D13:P13"/>
@@ -13855,11 +13854,12 @@
     <mergeCell ref="E6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:N7"/>
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -13904,62 +13904,62 @@
     <row r="1" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="146" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="146"/>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="146"/>
-      <c r="S1" s="146"/>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
+      <c r="C1" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
     </row>
     <row r="2" spans="1:37" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
     </row>
     <row r="3" spans="1:37" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="85"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="145"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="103"/>
       <c r="F3" s="88" t="s">
         <v>185</v>
@@ -13999,30 +13999,30 @@
     <row r="4" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="84"/>
       <c r="B4" s="84"/>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="145"/>
+      <c r="D4" s="128"/>
       <c r="E4" s="103"/>
-      <c r="F4" s="139" t="s">
+      <c r="F4" s="129" t="s">
         <v>183</v>
       </c>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="129"/>
+      <c r="U4" s="129"/>
+      <c r="V4" s="129"/>
       <c r="W4" s="88"/>
       <c r="X4" s="88"/>
       <c r="Y4" s="88"/>
@@ -14042,30 +14042,30 @@
     <row r="5" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="84"/>
       <c r="B5" s="84"/>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="128" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="145"/>
+      <c r="D5" s="128"/>
       <c r="E5" s="103"/>
-      <c r="F5" s="140" t="s">
+      <c r="F5" s="143" t="s">
         <v>184</v>
       </c>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="140"/>
-      <c r="R5" s="140"/>
-      <c r="S5" s="140"/>
-      <c r="T5" s="140"/>
-      <c r="U5" s="140"/>
-      <c r="V5" s="140"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="143"/>
+      <c r="P5" s="143"/>
+      <c r="Q5" s="143"/>
+      <c r="R5" s="143"/>
+      <c r="S5" s="143"/>
+      <c r="T5" s="143"/>
+      <c r="U5" s="143"/>
+      <c r="V5" s="143"/>
       <c r="W5" s="89"/>
       <c r="X5" s="89"/>
       <c r="Y5" s="89"/>
@@ -14085,86 +14085,86 @@
     <row r="6" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="128" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="145"/>
+      <c r="D6" s="128"/>
       <c r="E6" s="103"/>
-      <c r="F6" s="139" t="s">
+      <c r="F6" s="129" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="139"/>
-      <c r="Q6" s="139"/>
-      <c r="R6" s="139"/>
-      <c r="S6" s="139"/>
-      <c r="T6" s="139"/>
-      <c r="U6" s="139"/>
-      <c r="V6" s="139"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129"/>
+      <c r="V6" s="129"/>
     </row>
     <row r="7" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
-      <c r="C7" s="145" t="s">
+      <c r="C7" s="128" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="145"/>
+      <c r="D7" s="128"/>
       <c r="E7" s="103"/>
-      <c r="F7" s="139" t="s">
+      <c r="F7" s="129" t="s">
         <v>248</v>
       </c>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="139"/>
-      <c r="N7" s="139"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="139"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="139"/>
-      <c r="U7" s="139"/>
-      <c r="V7" s="139"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="129"/>
+      <c r="U7" s="129"/>
+      <c r="V7" s="129"/>
     </row>
     <row r="8" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
-      <c r="C8" s="145" t="s">
+      <c r="C8" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="145"/>
+      <c r="D8" s="128"/>
       <c r="E8" s="103"/>
-      <c r="F8" s="141" t="s">
+      <c r="F8" s="144" t="s">
         <v>252</v>
       </c>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="141"/>
-      <c r="N8" s="141"/>
-      <c r="O8" s="141"/>
-      <c r="P8" s="141"/>
-      <c r="Q8" s="141"/>
-      <c r="R8" s="141"/>
-      <c r="S8" s="141"/>
-      <c r="T8" s="141"/>
-      <c r="U8" s="141"/>
-      <c r="V8" s="141"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="144"/>
+      <c r="K8" s="144"/>
+      <c r="L8" s="144"/>
+      <c r="M8" s="144"/>
+      <c r="N8" s="144"/>
+      <c r="O8" s="144"/>
+      <c r="P8" s="144"/>
+      <c r="Q8" s="144"/>
+      <c r="R8" s="144"/>
+      <c r="S8" s="144"/>
+      <c r="T8" s="144"/>
+      <c r="U8" s="144"/>
+      <c r="V8" s="144"/>
     </row>
     <row r="9" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="104"/>
@@ -14215,10 +14215,10 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="169" t="s">
+      <c r="A11" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="169" t="s">
+      <c r="B11" s="170" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="23" t="s">
@@ -14255,16 +14255,16 @@
       <c r="T11" s="118"/>
       <c r="U11" s="118"/>
       <c r="V11" s="118"/>
-      <c r="W11" s="170" t="s">
+      <c r="W11" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="X11" s="170" t="s">
+      <c r="X11" s="169" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="169"/>
-      <c r="B12" s="169"/>
+      <c r="A12" s="170"/>
+      <c r="B12" s="170"/>
       <c r="C12" s="23" t="s">
         <v>14</v>
       </c>
@@ -14287,12 +14287,12 @@
       <c r="T12" s="120"/>
       <c r="U12" s="120"/>
       <c r="V12" s="120"/>
-      <c r="W12" s="170"/>
-      <c r="X12" s="170"/>
+      <c r="W12" s="169"/>
+      <c r="X12" s="169"/>
     </row>
     <row r="13" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="169"/>
-      <c r="B13" s="169"/>
+      <c r="A13" s="170"/>
+      <c r="B13" s="170"/>
       <c r="C13" s="23" t="s">
         <v>10</v>
       </c>
@@ -14336,30 +14336,30 @@
       </c>
     </row>
     <row r="14" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="169"/>
-      <c r="B14" s="169"/>
+      <c r="A14" s="170"/>
+      <c r="B14" s="170"/>
       <c r="C14" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="169"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="169"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="169"/>
-      <c r="K14" s="169"/>
-      <c r="L14" s="169"/>
-      <c r="M14" s="169"/>
-      <c r="N14" s="169"/>
-      <c r="O14" s="169"/>
-      <c r="P14" s="169"/>
-      <c r="Q14" s="169"/>
-      <c r="R14" s="169"/>
-      <c r="S14" s="169"/>
-      <c r="T14" s="169"/>
-      <c r="U14" s="169"/>
-      <c r="V14" s="169"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="170"/>
+      <c r="L14" s="170"/>
+      <c r="M14" s="170"/>
+      <c r="N14" s="170"/>
+      <c r="O14" s="170"/>
+      <c r="P14" s="170"/>
+      <c r="Q14" s="170"/>
+      <c r="R14" s="170"/>
+      <c r="S14" s="170"/>
+      <c r="T14" s="170"/>
+      <c r="U14" s="170"/>
+      <c r="V14" s="170"/>
       <c r="W14" s="9"/>
       <c r="X14" s="108"/>
     </row>
@@ -15785,10 +15785,10 @@
       <c r="AA43" s="15"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C44" s="144" t="s">
+      <c r="C44" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="144"/>
+      <c r="D44" s="127"/>
       <c r="E44" s="117"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -15985,11 +15985,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:V8"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="C2:V2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:V4"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="D14:V14"/>
@@ -15999,11 +15999,11 @@
     <mergeCell ref="F6:V6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="F7:V7"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="C2:V2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:V4"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:V8"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
@@ -16020,8 +16020,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD84"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A24" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A30" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -16047,46 +16047,46 @@
     <row r="1" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="146" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
+      <c r="C1" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
     </row>
     <row r="2" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
     </row>
     <row r="3" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="85"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="145"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="88" t="s">
         <v>185</v>
       </c>
@@ -16119,22 +16119,22 @@
     <row r="4" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="84"/>
       <c r="B4" s="84"/>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="139" t="s">
+      <c r="D4" s="128"/>
+      <c r="E4" s="129" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
-      <c r="N4" s="139"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
       <c r="O4" s="88"/>
       <c r="P4" s="88"/>
       <c r="Q4" s="88"/>
@@ -16155,22 +16155,22 @@
     <row r="5" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="84"/>
       <c r="B5" s="84"/>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="128" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="145"/>
-      <c r="E5" s="140" t="s">
+      <c r="D5" s="128"/>
+      <c r="E5" s="143" t="s">
         <v>245</v>
       </c>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
       <c r="O5" s="89"/>
       <c r="P5" s="89"/>
       <c r="Q5" s="89"/>
@@ -16191,56 +16191,56 @@
     <row r="6" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="128" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="145"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
     </row>
     <row r="7" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
-      <c r="C7" s="145" t="s">
+      <c r="C7" s="128" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="139"/>
-      <c r="N7" s="139"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
-      <c r="C8" s="145" t="s">
+      <c r="C8" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="145"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="141"/>
-      <c r="N8" s="141"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="144"/>
+      <c r="K8" s="144"/>
+      <c r="L8" s="144"/>
+      <c r="M8" s="144"/>
+      <c r="N8" s="144"/>
     </row>
     <row r="9" spans="1:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
@@ -16259,10 +16259,10 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:30" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="134" t="s">
         <v>241</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -16295,16 +16295,16 @@
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
-      <c r="O10" s="142" t="s">
+      <c r="O10" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="136" t="s">
+      <c r="P10" s="140" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="128"/>
-      <c r="B11" s="131"/>
+      <c r="A11" s="132"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="23" t="s">
         <v>14</v>
       </c>
@@ -16319,12 +16319,12 @@
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
-      <c r="O11" s="143"/>
-      <c r="P11" s="137"/>
+      <c r="O11" s="146"/>
+      <c r="P11" s="141"/>
     </row>
     <row r="12" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="128"/>
-      <c r="B12" s="131"/>
+      <c r="A12" s="132"/>
+      <c r="B12" s="135"/>
       <c r="C12" s="25" t="s">
         <v>10</v>
       </c>
@@ -16364,24 +16364,24 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="129"/>
-      <c r="B13" s="132"/>
+      <c r="A13" s="133"/>
+      <c r="B13" s="136"/>
       <c r="C13" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="D13" s="133"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="134"/>
-      <c r="N13" s="134"/>
-      <c r="O13" s="134"/>
-      <c r="P13" s="135"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="139"/>
     </row>
     <row r="14" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
@@ -17498,7 +17498,7 @@
         <v>234</v>
       </c>
       <c r="D38" s="75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E38" s="75">
         <v>0</v>
@@ -17510,7 +17510,7 @@
         <v>3</v>
       </c>
       <c r="H38" s="75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I38" s="13">
         <v>3</v>
@@ -17526,11 +17526,11 @@
       <c r="N38" s="13"/>
       <c r="O38" s="21">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P38" s="22">
         <f t="shared" si="1"/>
-        <v>42.857142857142854</v>
+        <v>71.428571428571431</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -18595,10 +18595,10 @@
       <c r="N77" s="10"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C78" s="144" t="s">
+      <c r="C78" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="144"/>
+      <c r="D78" s="127"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -18606,10 +18606,10 @@
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
-      <c r="M78" s="144" t="s">
+      <c r="M78" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="N78" s="144"/>
+      <c r="N78" s="127"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F79" s="3"/>
@@ -18644,12 +18644,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:N4"/>
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="D13:P13"/>
@@ -18659,11 +18658,12 @@
     <mergeCell ref="E6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:N7"/>
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
@@ -18684,8 +18684,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -18705,26 +18705,26 @@
     <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="146" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
+      <c r="C1" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
     </row>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -18732,13 +18732,13 @@
       <c r="C3" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="139" t="s">
+      <c r="D3" s="129" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -18746,13 +18746,13 @@
       <c r="C4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="139" t="s">
+      <c r="D4" s="129" t="s">
         <v>246</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
@@ -18760,13 +18760,13 @@
       <c r="C5" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="139" t="s">
+      <c r="D5" s="129" t="s">
         <v>247</v>
       </c>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
@@ -18774,13 +18774,13 @@
       <c r="C6" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="139" t="s">
+      <c r="D6" s="129" t="s">
         <v>248</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
@@ -18788,13 +18788,13 @@
       <c r="C7" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="141" t="s">
+      <c r="D7" s="144" t="s">
         <v>249</v>
       </c>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
@@ -18807,51 +18807,51 @@
       <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="171" t="s">
+      <c r="A9" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="171" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="171" t="s">
+      <c r="B9" s="174" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="174" t="s">
         <v>243</v>
       </c>
-      <c r="D9" s="178" t="str">
+      <c r="D9" s="181" t="str">
         <f>September!E5</f>
         <v>September 2023</v>
       </c>
-      <c r="E9" s="178" t="str">
+      <c r="E9" s="181" t="str">
         <f>October!F5</f>
         <v>October 2023</v>
       </c>
-      <c r="F9" s="178" t="str">
+      <c r="F9" s="181" t="str">
         <f>'November &amp; December'!E5</f>
         <v>November/December 2023</v>
       </c>
-      <c r="G9" s="174" t="s">
+      <c r="G9" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="176" t="s">
+      <c r="H9" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="180" t="s">
+      <c r="I9" s="172" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="172"/>
-      <c r="B10" s="172"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="181"/>
+      <c r="A10" s="175"/>
+      <c r="B10" s="175"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="173"/>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="173"/>
-      <c r="B11" s="173"/>
+      <c r="A11" s="176"/>
+      <c r="B11" s="176"/>
       <c r="C11" s="90" t="s">
         <v>10</v>
       </c>
@@ -18875,7 +18875,7 @@
         <f>(G11/$G$11)*100</f>
         <v>100</v>
       </c>
-      <c r="I11" s="181"/>
+      <c r="I11" s="173"/>
     </row>
     <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
@@ -19737,19 +19737,19 @@
       </c>
       <c r="F36" s="13">
         <f>'November &amp; December'!O38</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G36" s="14">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H36" s="29">
         <f t="shared" si="1"/>
-        <v>61.403508771929829</v>
+        <v>75.438596491228068</v>
       </c>
       <c r="I36" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>Not Eligible</v>
+        <v>Eligible</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -19870,10 +19870,10 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C42" s="83"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="179" t="s">
+      <c r="F42" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="179"/>
+      <c r="G42" s="171"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E43" s="3"/>
@@ -19888,6 +19888,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="C1:H1"/>
@@ -19897,14 +19905,6 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="5" scale="90" orientation="portrait" r:id="rId1"/>
